--- a/medicine/Enfance/Brigitte_Aubert/Brigitte_Aubert.xlsx
+++ b/medicine/Enfance/Brigitte_Aubert/Brigitte_Aubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brigitte Aubert, née à Cannes le 17 mars 1956, est une autrice française de romans policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1956 à Cannes, Brigitte Aubert grandit au cœur du Festival international du cinéma : ses parents exploitent le cinéma Olympia. Après l'obtention d'une maîtrise en droit du travail, à la Faculté de Nice, elle entre, en 1977, dans l'exploitation cinématographique comme programmatrice art et essai à l'UGC Méditerranée, profession qu'elle continue d'exercer à l'heure actuelle.
 Dès 1982, elle devient scénariste/dialoguiste et productrice pour une maison de courts métrages, RN7 productions.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans pour adultes
-Romans hors série
-Les Quatre Fils du docteur March. Paris : Seuil, coll. « Seuil policiers », 1992, 240 p.  (ISBN 978-2-020-17291-2) (BNF 35513733)
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans hors série</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Quatre Fils du docteur March. Paris : Seuil, coll. « Seuil policiers », 1992, 240 p.  (ISBN 978-2-020-17291-2) (BNF 35513733)
 Brigitte Aubert, La Rose de fer, Paris, Seuil, coll. « Seuil policiers », 1er décembre 1993, 295 p. (ISBN 978-2-02-020193-3, BNF 35574031)
 Brigitte Aubert, Requiem caraïbe, Paris, Seuil, coll. « Seuil policiers », 6 mai 1997, 320 p. (ISBN 978-2-02-032039-9, BNF 35869171)
 Brigitte Aubert, Transfixions, Paris, Seuil, coll. « Seuil policiers », 1998, 209 p. (ISBN 978-2-02-035511-7, BNF 36716090)Adapté pour le cinéma (2001) sous le titre Mauvais genres, par Francis Girod, scénario et dialogues de Philippe Cougrand.
@@ -562,137 +584,480 @@
 Brigitte Aubert, Le Souffle de l'ogre, Paris, Fayard, coll. « Fayard noir », 10 mars 2010, 297 p. (ISBN 978-2-213-63853-9, BNF 42163452)
 Brigitte Aubert, Freaky Fridays, Paris, la Branche, coll. « Vendredi 13 », 12 janvier 2012, 221 p. (ISBN 978-2-35306-054-2, BNF 42576100)
 La Ville des serpents d’eau. Paris : Éditions du Seuil, coll. "Policiers", 2012, 287 p.  (ISBN 978-2-021-07538-0)
-Mémoires secrets d'un valet de cœur. Paris : Éditions du Seuil, coll. "Policiers", 2017, 320 p.  (ISBN 978-2-02-132018-3)
-Série Jacksonville
-Brigitte Aubert, Ténèbres sur Jacksonville, Paris, Seuil, coll. « Seuil policiers », 1994, 307 p. (ISBN 978-2-02-022586-1, BNF 35705725)
-Brigitte Aubert, La Morsure des ténèbres, Paris, Seuil, 16 février 1999, 269 p. (ISBN 978-2-02-036572-7, BNF 36973728)
-Série Élise Andrioli
-La Mort des bois, Paris, Seuil, coll. « Seuil policiers », 1996, 255 p. (ISBN 978-2-02-025400-7, BNF 35800517)
+Mémoires secrets d'un valet de cœur. Paris : Éditions du Seuil, coll. "Policiers", 2017, 320 p.  (ISBN 978-2-02-132018-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jacksonville</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brigitte Aubert, Ténèbres sur Jacksonville, Paris, Seuil, coll. « Seuil policiers », 1994, 307 p. (ISBN 978-2-02-022586-1, BNF 35705725)
+Brigitte Aubert, La Morsure des ténèbres, Paris, Seuil, 16 février 1999, 269 p. (ISBN 978-2-02-036572-7, BNF 36973728)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Élise Andrioli</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Mort des bois, Paris, Seuil, coll. « Seuil policiers », 1996, 255 p. (ISBN 978-2-02-025400-7, BNF 35800517)
 La Mort des neiges, Paris, Seuil, coll. « Seuil policiers », 2000, 290 p. (ISBN 978-2-02-041573-6, BNF 37186998)
-La Mort au Festival de Cannes, Paris, Seuil, coll. « Seuil policiers », 2015, 272 p. (ISBN 978-2-02-121829-9, BNF 44326861)
-Série Mortelle Riviera
-Brigitte Aubert, Le Couturier de la mort, Paris, Seuil, coll. « Points » (no 733), 11 avril 2000, 225 p. (ISBN 978-2-02-033817-2, BNF 37186745)
-Brigitte Aubert, Descentes d'organes, Paris, Seuil, coll. « Points » (no 862), 11 avril 2001, 217 p. (ISBN 978-2-02-033818-9, BNF 37637878)
-Série Louis Denfert, reporter
-Brigitte Aubert, Le Miroir des ombres, Paris, 10/18, coll. « Grands détectives » (no 4155), 18 septembre 2008, 376 p. (ISBN 978-2-264-04632-1, BNF 41338789)
+La Mort au Festival de Cannes, Paris, Seuil, coll. « Seuil policiers », 2015, 272 p. (ISBN 978-2-02-121829-9, BNF 44326861)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Mortelle Riviera</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brigitte Aubert, Le Couturier de la mort, Paris, Seuil, coll. « Points » (no 733), 11 avril 2000, 225 p. (ISBN 978-2-02-033817-2, BNF 37186745)
+Brigitte Aubert, Descentes d'organes, Paris, Seuil, coll. « Points » (no 862), 11 avril 2001, 217 p. (ISBN 978-2-02-033818-9, BNF 37637878)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Louis Denfert, reporter</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Brigitte Aubert, Le Miroir des ombres, Paris, 10/18, coll. « Grands détectives » (no 4155), 18 septembre 2008, 376 p. (ISBN 978-2-264-04632-1, BNF 41338789)
 Brigitte Aubert, La Danse des illusions, Paris, 10/18, coll. « Grands détectives » (no 4156), 18 septembre 2008, 410 p. (ISBN 978-2-264-04633-8, BNF 41338787)
 Brigitte Aubert, Projections macabres, Paris, 10/18, coll. « Grands détectives » (no 4229), 20 mai 2009, 426 p. (ISBN 978-2-264-04890-5, BNF 41486920)
 Brigitte Aubert, Le Secret de l'abbaye, Paris, 10/18, coll. « Grands détectives » (no 4377), 21 octobre 2010, 416 p. (ISBN 978-2-264-05057-1, BNF 42309726)
-Brigitte Aubert, Le Royaume disparu, Paris, 10/18, coll. « Grands détectives » (no 4549), 5 septembre 2013, 384 p. (ISBN 978-2-264-05391-6)
-Recueils de nouvelles
-Coïncidences ; Rigor mortis. Paris : Seuil, "Points", 2001, 139 p.  (ISBN 978-2-020-50842-1) (BNF 37684238)
+Brigitte Aubert, Le Royaume disparu, Paris, 10/18, coll. « Grands détectives » (no 4549), 5 septembre 2013, 384 p. (ISBN 978-2-264-05391-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Coïncidences ; Rigor mortis. Paris : Seuil, "Points", 2001, 139 p.  (ISBN 978-2-020-50842-1) (BNF 37684238)
 Nuits noires. Paris : Fayard, coll. "Fayard noir", 2005, 200 p.  (ISBN 978-2-213-62534-8) (BNF 40101877)
 Scènes de crimes. Paris : Thierry Magnier, coll. "Nouvelles", 2007, 187 p.  (ISBN 978-2-844-20544-5) (BNF 41000934)
-Totale angoisse. Paris : Thierry Magnier, coll. "Nouvelles", 2009, 185 p.  (ISBN 978-2-844-20770-8) (BNF 42446071)
-Romans pour la jeunesse, avec Gisèle Cavali
-Romans hors série
-Le Mensonge / ill. Frédéric Rébéna. In Je Bouquine, Bayard Presse, octobre 1997, no 164, p. 21-64. Rééd. sous le titre Le Mensonge de mon père. Ill. Faujour. Morsang-sur-Orge : Lire c'est partir, 2004, 93 p.  (ISBN 2-35024-002-9)
+Totale angoisse. Paris : Thierry Magnier, coll. "Nouvelles", 2009, 185 p.  (ISBN 978-2-844-20770-8) (BNF 42446071)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse, avec Gisèle Cavali</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans hors série</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Mensonge / ill. Frédéric Rébéna. In Je Bouquine, Bayard Presse, octobre 1997, no 164, p. 21-64. Rééd. sous le titre Le Mensonge de mon père. Ill. Faujour. Morsang-sur-Orge : Lire c'est partir, 2004, 93 p.  (ISBN 2-35024-002-9)
 Passagère sans retour / ill. Frédéric Rébéna. Paris : Albin Michel, 1999, 156 p. (Le Furet enquête ; 12).  (ISBN 2-226-10212-4)
 Ranko Tango. Paris : Éd. du Seuil, 1999, 166 p. (Collection Fiction jeunesse).  (ISBN 2-02-034034-8). Rééd. Éd. du Seuil, 2003, 166 p. (Points. Virgule ; 69).  (ISBN 2-02-060184-2)
 Le Baiser de la reine. Paris : Hachette jeunesse, mai 2001, 160 p. (Vertige Fantastique ; no 1130).  (ISBN 2-01-200704-X)
 Panique aux urgences / ill. James Prunier. Paris : Rageot, 2004, 153 p. (Heure noire).  (ISBN 2-7002-2912-6)
 Le Maléfice d’Isora. Paris : Magnard jeunesse, 2005, 213 p. (Tipik junior : fantastique ; 43).  (ISBN 2-210-98621-4)
 Seules dans la nuit. Paris : Rageot, 2006, 104 p. (Heure noire).  (ISBN 2-7002-3126-0)
-Vague de panique. Paris : coéd. SNCF - Gallimard jeunesse, février 2009, 95 p. (Voyage en page, no 19).  (ISBN 978-2-07-062181-1)
-Série Les Trois Scotch
-Cauchemar dans la crypte / ill. Gaëtan de Séguin. Paris : Magnard jeunesse, 2001, 47 p. (Les p'tits policiers).  (ISBN 2-210-98059-3). Rééd. ill. Marie-Geneviève Thoisy. Étampes : Lire c'est partir, 2006, 59 p.  (ISBN 2-35024-036-3)
-L’Assassin habite en face / ill. Clément Oubrerie. Paris : Magnard jeunesse, 2002, 47 p. (Les p'tits policiers ; 12).  (ISBN 2-210-98080-1). Rééd. ill. Gaëtan de Seguin. Paris : Magnard jeunesse, 2004, 47 p. (Tipik cadet : policier ; 9).  (ISBN 2-210-98355-X)
-Série Duo de choc
-Témoin sur vidéo / ill. Bart. Paris : Magnard jeunesse, 2002, 134 p. (Les policiers ; 3).  (ISBN 2-210-98428-9). Rééd. Paris : Magnard jeunesse, mai 2004, 138 p. (Tipik junior : policier ; 8).  (ISBN 2-210-98471-8)
-La Mort sous contrat. Paris : Magnard jeunesse, août 2004, 165 p. (Tipik junior : policier ; 28).  (ISBN 2-210-98459-9)
-Saga Les Cavaliers des Lumières
-Le Règne de la Barbarie. Paris : Plon jeunesse, mai 2008, 301 p. (Heroic).  (ISBN 978-2-259-20773-7)
+Vague de panique. Paris : coéd. SNCF - Gallimard jeunesse, février 2009, 95 p. (Voyage en page, no 19).  (ISBN 978-2-07-062181-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse, avec Gisèle Cavali</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les Trois Scotch</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cauchemar dans la crypte / ill. Gaëtan de Séguin. Paris : Magnard jeunesse, 2001, 47 p. (Les p'tits policiers).  (ISBN 2-210-98059-3). Rééd. ill. Marie-Geneviève Thoisy. Étampes : Lire c'est partir, 2006, 59 p.  (ISBN 2-35024-036-3)
+L’Assassin habite en face / ill. Clément Oubrerie. Paris : Magnard jeunesse, 2002, 47 p. (Les p'tits policiers ; 12).  (ISBN 2-210-98080-1). Rééd. ill. Gaëtan de Seguin. Paris : Magnard jeunesse, 2004, 47 p. (Tipik cadet : policier ; 9).  (ISBN 2-210-98355-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse, avec Gisèle Cavali</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Duo de choc</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Témoin sur vidéo / ill. Bart. Paris : Magnard jeunesse, 2002, 134 p. (Les policiers ; 3).  (ISBN 2-210-98428-9). Rééd. Paris : Magnard jeunesse, mai 2004, 138 p. (Tipik junior : policier ; 8).  (ISBN 2-210-98471-8)
+La Mort sous contrat. Paris : Magnard jeunesse, août 2004, 165 p. (Tipik junior : policier ; 28).  (ISBN 2-210-98459-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse, avec Gisèle Cavali</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Saga Les Cavaliers des Lumières</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Règne de la Barbarie. Paris : Plon jeunesse, mai 2008, 301 p. (Heroic).  (ISBN 978-2-259-20773-7)
 La Voie des chimères.Paris : Plon jeunesse, novembre 2008, 307 p. (Heroic).  (ISBN 978-2-259-20774-4)
 La Porte du Présage, annoncé mais jamais paru.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2001 : Mauvais genres, par Francis Girod, adaptation du roman  Transfixions, scénario et dialogues de Philippe Cougrand. Avec : Richard Bohringer, Robinson Stévenin.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix du roman policier francophone de la ville du Mans 1996 pour La Mort des bois[1]
-Grand prix de littérature policière 1997 pour La Mort des bois[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Prix du roman policier francophone de la ville du Mans 1996 pour La Mort des bois
+Grand prix de littérature policière 1997 pour La Mort des bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brigitte_Aubert</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251), p. 119-120.
 Jean-Marie David, « Brigitte Aubert : suspense, humour noir &amp; vitriol », 813 : les amis de la littérature policière. Paris : Association 813, février 2005, no 92, p. 5-31.  (ISSN 0751-3879)</t>
